--- a/bach_features.xlsx
+++ b/bach_features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61d7570c50a50215/Desktop/HR-verkefni/Gagnanám og Vitvélar/Research project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D276CD7-22BE-47AA-BF04-D8ACF3DBE3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{3D276CD7-22BE-47AA-BF04-D8ACF3DBE3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E35A2DE5-15C0-4D02-974B-880D6FE3E2BE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cleaned_data" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Range</t>
-  </si>
-  <si>
-    <t>Relative Prevalence of Top Pitch Classes</t>
   </si>
   <si>
     <t>Interval Between Most Prevalent Pitch Classes</t>
@@ -54,11 +51,14 @@
   <si>
     <t>Piece</t>
   </si>
+  <si>
+    <t>Prevalence of Most Common Pitch Class</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -893,48 +893,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A57"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
